--- a/Parts of the case/Component list.xlsx
+++ b/Parts of the case/Component list.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17044\Pictures\device\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1340285B-BBD2-4F5A-B5DE-D45255885BC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6658022B-0BEF-492F-BF68-7987DB5E1859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{95EA7C77-9FFB-40AF-BA1E-C410A4D4A412}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{95EA7C77-9FFB-40AF-BA1E-C410A4D4A412}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>No.</t>
   </si>
@@ -254,10 +261,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MicroSDカード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>指定なし</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
@@ -292,6 +295,92 @@
     <t>佐藤</t>
     <rPh sb="0" eb="2">
       <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーディオファン オーディオケーブル 3.5mm 3極 オス ストレート 金メッキ 約13cm (端子含む) レッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B07S65TRLK</t>
+  </si>
+  <si>
+    <t>microSDHCカード32GB EXTREME PRO</t>
+  </si>
+  <si>
+    <t>SDSQXCG-032G-GN6MA</t>
+  </si>
+  <si>
+    <t>指定なし</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>録音出音の検証時のみに使用</t>
+    <rPh sb="0" eb="2">
+      <t>ロクオン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュツ</t>
+    </rPh>
+    <rPh sb="3" eb="13">
+      <t>オンノケンショウジノミニシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号通信と電気投入の両方を使用できること</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッテリ（リチウムイオン電池）</t>
+    <rPh sb="12" eb="14">
+      <t>デンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12V 3.6A（最大）の仕様を満たすこと</t>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -557,9 +646,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,11 +667,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -622,33 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -972,292 +1061,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F966B9-7AE9-47A6-BF41-3710C183BF0B}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="42.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="11" t="s">
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="14">
         <v>6811</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="14">
         <v>1</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="14">
         <f>F5*G5</f>
         <v>6811</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="14">
         <v>3850</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="14">
         <v>1</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="14">
         <f t="shared" ref="H6:H18" si="0">F6*G6</f>
         <v>3850</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J6" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="14">
         <v>6050</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="14">
         <v>2</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
         <v>12100</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="14">
         <v>8778</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>8778</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="14">
         <v>22000</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="14">
         <v>1</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="14">
         <v>789</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="14">
         <f t="shared" si="0"/>
         <v>789</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="14">
         <v>220</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="14">
         <v>1</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1266,243 +1369,272 @@
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1">
+      <c r="I12" s="3"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2519</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>2519</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33">
+      <c r="C14" s="35"/>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33">
+      <c r="I14" s="3"/>
+      <c r="J14" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="38.5" customHeight="1">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="14">
+        <v>418</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="0"/>
+        <v>418</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33">
+      <c r="I16" s="3"/>
+      <c r="J16" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33">
+      <c r="I17" s="3"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1">
+      <c r="I18" s="3"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33">
+      <c r="E19" s="2"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14">
         <f t="shared" ref="H19:H24" si="1">F19*G19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1">
+      <c r="I19" s="3"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33">
+      <c r="E20" s="2"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1">
+      <c r="I20" s="3"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33">
+      <c r="E21" s="2"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1">
+      <c r="I21" s="3"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33">
+      <c r="E22" s="2"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1">
+      <c r="I22" s="3"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1">
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33">
+      <c r="E23" s="2"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="19.5" customHeight="1">
+      <c r="I23" s="3"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" customHeight="1">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33">
+      <c r="E24" s="2"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="G26" s="6" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="G26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <f>SUM(H5:H24)</f>
-        <v>54548</v>
-      </c>
-      <c r="I26" s="10" t="s">
+        <v>57485</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
@@ -1519,6 +1651,18 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -1529,9 +1673,11 @@
     <hyperlink ref="I9" r:id="rId5" xr:uid="{54436546-77D3-4CC0-BBAB-8E0353E0B548}"/>
     <hyperlink ref="I10" r:id="rId6" xr:uid="{64CE1EC3-CA79-4DCD-A334-161DD905A4C1}"/>
     <hyperlink ref="I11" r:id="rId7" xr:uid="{DC45EB9C-F52A-472A-8F09-118D9DD3E20C}"/>
+    <hyperlink ref="I15" r:id="rId8" xr:uid="{58A03EAE-2048-4979-9A8D-5E94A1F8F8CB}"/>
+    <hyperlink ref="I13" r:id="rId9" xr:uid="{151EBCE4-121A-44BC-AC7D-D7D60ACFA649}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>